--- a/inst/extdata/tma2/example_p53.xlsx
+++ b/inst/extdata/tma2/example_p53.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/TMAtools/inst/extdata/tma2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D482CA-1BA1-AA45-953D-E15CB2710CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8B1D32-A0C4-7C4B-8B25-AEFF9E89190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13760" yWindow="520" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5780" yWindow="840" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TMA map" sheetId="1" r:id="rId1"/>
-    <sheet name="P53" sheetId="2" r:id="rId2"/>
+    <sheet name="p53" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -59,9 +59,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,56 +507,54 @@
   <dimension ref="C2:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
         <v>8</v>
       </c>
-      <c r="I2" s="1">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="1">
+      <c r="C3">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="I3" s="1">
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="I3">
         <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>9</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>3</v>
       </c>
     </row>
@@ -588,54 +585,54 @@
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
         <v>8</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>3</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>4</v>
       </c>
       <c r="I8" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>9</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8">
         <v>8</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <v>3</v>
       </c>
     </row>
